--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>testname</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>amazonPageTest</t>
+  </si>
+  <si>
+    <t>Amazon-Page-Test</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -431,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +483,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -488,12 +497,29 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -505,10 +531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -585,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -625,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -637,6 +663,26 @@
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -10,12 +10,12 @@
     <sheet name="RUN_MANAGER" sheetId="1" r:id="rId1"/>
     <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>testname</t>
   </si>
@@ -44,27 +44,9 @@
     <t>yes</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
     <t>Login-Logout-test</t>
   </si>
   <si>
@@ -72,9 +54,6 @@
   </si>
   <si>
     <t>browser</t>
-  </si>
-  <si>
-    <t>firefox</t>
   </si>
   <si>
     <t>chrome</t>
@@ -130,12 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +421,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -494,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -508,10 +486,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -531,22 +509,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,136 +529,95 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
